--- a/files/separadas/repeat_p24_4.xlsx
+++ b/files/separadas/repeat_p24_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="303">
   <si>
     <t>p24_4_nom</t>
   </si>
@@ -74,18 +74,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Diplimado en innovación -ESAP</t>
@@ -1304,13 +1292,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,40 +1359,28 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -1413,48 +1389,36 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R2" t="s">
-        <v>305</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1463,48 +1427,36 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R3" t="s">
-        <v>305</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1513,48 +1465,36 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="R4" t="s">
-        <v>305</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1563,48 +1503,36 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O5" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="R5" t="s">
-        <v>305</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1613,48 +1541,36 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="R6" t="s">
-        <v>305</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7">
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L7">
         <v>11</v>
@@ -1663,48 +1579,36 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R7" t="s">
-        <v>305</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D8">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L8">
         <v>11</v>
@@ -1713,48 +1617,36 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R8" t="s">
-        <v>305</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D9">
         <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L9">
         <v>11</v>
@@ -1763,48 +1655,36 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R9" t="s">
-        <v>305</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L10">
         <v>11</v>
@@ -1813,48 +1693,36 @@
         <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R10" t="s">
-        <v>305</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D11">
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L11">
         <v>11</v>
@@ -1863,48 +1731,36 @@
         <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R11" t="s">
-        <v>305</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J12">
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L12">
         <v>11</v>
@@ -1913,48 +1769,36 @@
         <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R12" t="s">
-        <v>305</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D13">
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L13">
         <v>11</v>
@@ -1963,48 +1807,36 @@
         <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R13" t="s">
-        <v>305</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D14">
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L14">
         <v>11</v>
@@ -2013,48 +1845,36 @@
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R14" t="s">
-        <v>305</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D15">
         <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J15">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L15">
         <v>11</v>
@@ -2063,48 +1883,36 @@
         <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R15" t="s">
-        <v>305</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D16">
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J16">
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L16">
         <v>16</v>
@@ -2113,48 +1921,36 @@
         <v>25</v>
       </c>
       <c r="N16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O16" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="R16" t="s">
-        <v>305</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J17">
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L17">
         <v>17</v>
@@ -2163,48 +1959,36 @@
         <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O17" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="R17" t="s">
-        <v>305</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D18">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J18">
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L18">
         <v>19</v>
@@ -2213,48 +1997,36 @@
         <v>30</v>
       </c>
       <c r="N18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O18" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R18" t="s">
-        <v>305</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D19">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J19">
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L19">
         <v>19</v>
@@ -2263,48 +2035,36 @@
         <v>30</v>
       </c>
       <c r="N19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O19" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R19" t="s">
-        <v>305</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J20">
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L20">
         <v>19</v>
@@ -2313,48 +2073,36 @@
         <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O20" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R20" t="s">
-        <v>305</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L21">
         <v>19</v>
@@ -2363,48 +2111,36 @@
         <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R21" t="s">
-        <v>305</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J22">
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L22">
         <v>19</v>
@@ -2413,48 +2149,36 @@
         <v>30</v>
       </c>
       <c r="N22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O22" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R22" t="s">
-        <v>305</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J23">
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L23">
         <v>20</v>
@@ -2463,48 +2187,36 @@
         <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O23" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R23" t="s">
-        <v>305</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D24">
         <v>800</v>
       </c>
       <c r="E24" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J24">
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L24">
         <v>21</v>
@@ -2513,48 +2225,36 @@
         <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O24" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R24" t="s">
-        <v>305</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D25">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J25">
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L25">
         <v>22</v>
@@ -2563,48 +2263,36 @@
         <v>37</v>
       </c>
       <c r="N25" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R25" t="s">
-        <v>305</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J26">
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L26">
         <v>22</v>
@@ -2613,48 +2301,36 @@
         <v>37</v>
       </c>
       <c r="N26" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O26" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R26" t="s">
-        <v>305</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J27">
         <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L27">
         <v>22</v>
@@ -2663,48 +2339,36 @@
         <v>37</v>
       </c>
       <c r="N27" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O27" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R27" t="s">
-        <v>305</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D28">
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J28">
         <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -2713,48 +2377,36 @@
         <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O28" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R28" t="s">
-        <v>306</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J29">
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -2763,48 +2415,36 @@
         <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O29" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R29" t="s">
-        <v>306</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J30">
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -2813,48 +2453,36 @@
         <v>52</v>
       </c>
       <c r="N30" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O30" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="R30" t="s">
-        <v>305</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D31">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J31">
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L31">
         <v>28</v>
@@ -2863,48 +2491,36 @@
         <v>57</v>
       </c>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O31" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R31" t="s">
-        <v>305</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J32">
         <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L32">
         <v>29</v>
@@ -2913,48 +2529,36 @@
         <v>58</v>
       </c>
       <c r="N32" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O32" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="R32" t="s">
-        <v>305</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J33">
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L33">
         <v>30</v>
@@ -2963,48 +2567,36 @@
         <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R33" t="s">
-        <v>305</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J34">
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L34">
         <v>30</v>
@@ -3013,48 +2605,36 @@
         <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O34" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R34" t="s">
-        <v>305</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J35">
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L35">
         <v>33</v>
@@ -3063,48 +2643,36 @@
         <v>63</v>
       </c>
       <c r="N35" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R35" t="s">
-        <v>305</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J36">
         <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L36">
         <v>33</v>
@@ -3113,48 +2681,36 @@
         <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R36" t="s">
-        <v>305</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J37">
         <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L37">
         <v>33</v>
@@ -3163,48 +2719,36 @@
         <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O37" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R37" t="s">
-        <v>305</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J38">
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L38">
         <v>39</v>
@@ -3213,48 +2757,36 @@
         <v>81</v>
       </c>
       <c r="N38" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O38" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="R38" t="s">
-        <v>305</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J39">
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L39">
         <v>44</v>
@@ -3263,48 +2795,36 @@
         <v>87</v>
       </c>
       <c r="N39" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O39" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R39" t="s">
-        <v>305</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J40">
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L40">
         <v>44</v>
@@ -3313,48 +2833,36 @@
         <v>87</v>
       </c>
       <c r="N40" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O40" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R40" t="s">
-        <v>305</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J41">
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L41">
         <v>44</v>
@@ -3363,48 +2871,36 @@
         <v>87</v>
       </c>
       <c r="N41" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O41" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R41" t="s">
-        <v>305</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J42">
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L42">
         <v>44</v>
@@ -3413,48 +2909,36 @@
         <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O42" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R42" t="s">
-        <v>305</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D43">
         <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J43">
         <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L43">
         <v>47</v>
@@ -3463,48 +2947,36 @@
         <v>91</v>
       </c>
       <c r="N43" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O43" s="2">
         <v>45043.91625</v>
       </c>
       <c r="R43" t="s">
-        <v>305</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J44">
         <v>43</v>
       </c>
       <c r="K44" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L44">
         <v>49</v>
@@ -3513,48 +2985,36 @@
         <v>93</v>
       </c>
       <c r="N44" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O44" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R44" t="s">
-        <v>305</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J45">
         <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L45">
         <v>49</v>
@@ -3563,48 +3023,36 @@
         <v>93</v>
       </c>
       <c r="N45" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O45" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R45" t="s">
-        <v>305</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J46">
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L46">
         <v>49</v>
@@ -3613,48 +3061,36 @@
         <v>93</v>
       </c>
       <c r="N46" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O46" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R46" t="s">
-        <v>305</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J47">
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L47">
         <v>49</v>
@@ -3663,48 +3099,36 @@
         <v>93</v>
       </c>
       <c r="N47" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O47" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R47" t="s">
-        <v>305</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J48">
         <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L48">
         <v>49</v>
@@ -3713,48 +3137,36 @@
         <v>93</v>
       </c>
       <c r="N48" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O48" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R48" t="s">
-        <v>305</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D49">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J49">
         <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L49">
         <v>50</v>
@@ -3763,48 +3175,36 @@
         <v>94</v>
       </c>
       <c r="N49" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O49" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R49" t="s">
-        <v>305</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J50">
         <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L50">
         <v>50</v>
@@ -3813,48 +3213,36 @@
         <v>94</v>
       </c>
       <c r="N50" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O50" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R50" t="s">
-        <v>305</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J51">
         <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -3863,48 +3251,36 @@
         <v>94</v>
       </c>
       <c r="N51" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O51" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R51" t="s">
-        <v>305</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J52">
         <v>51</v>
       </c>
       <c r="K52" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L52">
         <v>50</v>
@@ -3913,48 +3289,36 @@
         <v>94</v>
       </c>
       <c r="N52" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O52" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R52" t="s">
-        <v>305</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J53">
         <v>52</v>
       </c>
       <c r="K53" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L53">
         <v>50</v>
@@ -3963,48 +3327,36 @@
         <v>94</v>
       </c>
       <c r="N53" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O53" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R53" t="s">
-        <v>305</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D54">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J54">
         <v>53</v>
       </c>
       <c r="K54" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L54">
         <v>51</v>
@@ -4013,48 +3365,36 @@
         <v>95</v>
       </c>
       <c r="N54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O54" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R54" t="s">
-        <v>305</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D55">
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J55">
         <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L55">
         <v>51</v>
@@ -4063,48 +3403,36 @@
         <v>95</v>
       </c>
       <c r="N55" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O55" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R55" t="s">
-        <v>305</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D56">
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J56">
         <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L56">
         <v>51</v>
@@ -4113,48 +3441,36 @@
         <v>95</v>
       </c>
       <c r="N56" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O56" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R56" t="s">
-        <v>305</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D57">
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J57">
         <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L57">
         <v>51</v>
@@ -4163,48 +3479,36 @@
         <v>95</v>
       </c>
       <c r="N57" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O57" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R57" t="s">
-        <v>305</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D58">
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J58">
         <v>57</v>
       </c>
       <c r="K58" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L58">
         <v>51</v>
@@ -4213,48 +3517,36 @@
         <v>95</v>
       </c>
       <c r="N58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O58" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R58" t="s">
-        <v>305</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D59">
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J59">
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L59">
         <v>51</v>
@@ -4263,48 +3555,36 @@
         <v>95</v>
       </c>
       <c r="N59" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O59" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R59" t="s">
-        <v>305</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J60">
         <v>59</v>
       </c>
       <c r="K60" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L60">
         <v>51</v>
@@ -4313,48 +3593,36 @@
         <v>95</v>
       </c>
       <c r="N60" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O60" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R60" t="s">
-        <v>305</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D61">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J61">
         <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L61">
         <v>51</v>
@@ -4363,48 +3631,36 @@
         <v>95</v>
       </c>
       <c r="N61" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O61" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R61" t="s">
-        <v>305</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J62">
         <v>61</v>
       </c>
       <c r="K62" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L62">
         <v>51</v>
@@ -4413,48 +3669,36 @@
         <v>95</v>
       </c>
       <c r="N62" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R62" t="s">
-        <v>305</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J63">
         <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L63">
         <v>51</v>
@@ -4463,48 +3707,36 @@
         <v>95</v>
       </c>
       <c r="N63" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O63" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R63" t="s">
-        <v>305</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J64">
         <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L64">
         <v>51</v>
@@ -4513,48 +3745,36 @@
         <v>95</v>
       </c>
       <c r="N64" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O64" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R64" t="s">
-        <v>305</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D65">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J65">
         <v>64</v>
       </c>
       <c r="K65" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L65">
         <v>52</v>
@@ -4563,48 +3783,36 @@
         <v>96</v>
       </c>
       <c r="N65" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O65" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="R65" t="s">
-        <v>305</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D66">
         <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J66">
         <v>65</v>
       </c>
       <c r="K66" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L66">
         <v>54</v>
@@ -4613,48 +3821,36 @@
         <v>99</v>
       </c>
       <c r="N66" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O66" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R66" t="s">
-        <v>305</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J67">
         <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L67">
         <v>56</v>
@@ -4663,48 +3859,36 @@
         <v>101</v>
       </c>
       <c r="N67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O67" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="R67" t="s">
-        <v>305</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D68">
         <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J68">
         <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L68">
         <v>58</v>
@@ -4713,48 +3897,36 @@
         <v>103</v>
       </c>
       <c r="N68" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O68" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="R68" t="s">
-        <v>305</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D69">
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J69">
         <v>68</v>
       </c>
       <c r="K69" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L69">
         <v>59</v>
@@ -4763,25 +3935,13 @@
         <v>104</v>
       </c>
       <c r="N69" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O69" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="R69" t="s">
-        <v>305</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_4.xlsx
+++ b/files/separadas/repeat_p24_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="304">
   <si>
     <t>p24_4_nom</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Diplimado en innovación -ESAP</t>
@@ -1292,13 +1295,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,28 +1362,31 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -1389,36 +1395,39 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1427,36 +1436,39 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1465,36 +1477,39 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="R4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1503,36 +1518,39 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O5" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="R5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1541,36 +1559,39 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="R6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7">
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L7">
         <v>11</v>
@@ -1579,36 +1600,39 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D8">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L8">
         <v>11</v>
@@ -1617,36 +1641,39 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D9">
         <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L9">
         <v>11</v>
@@ -1655,36 +1682,39 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L10">
         <v>11</v>
@@ -1693,36 +1723,39 @@
         <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D11">
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L11">
         <v>11</v>
@@ -1731,36 +1764,39 @@
         <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J12">
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L12">
         <v>11</v>
@@ -1769,36 +1805,39 @@
         <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D13">
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L13">
         <v>11</v>
@@ -1807,36 +1846,39 @@
         <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14">
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L14">
         <v>11</v>
@@ -1845,36 +1887,39 @@
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D15">
         <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J15">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L15">
         <v>11</v>
@@ -1883,36 +1928,39 @@
         <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>302</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D16">
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J16">
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L16">
         <v>16</v>
@@ -1921,36 +1969,39 @@
         <v>25</v>
       </c>
       <c r="N16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O16" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="R16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J17">
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L17">
         <v>17</v>
@@ -1959,36 +2010,39 @@
         <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O17" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="R17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D18">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J18">
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L18">
         <v>19</v>
@@ -1997,36 +2051,39 @@
         <v>30</v>
       </c>
       <c r="N18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O18" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D19">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J19">
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L19">
         <v>19</v>
@@ -2035,36 +2092,39 @@
         <v>30</v>
       </c>
       <c r="N19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O19" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J20">
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L20">
         <v>19</v>
@@ -2073,36 +2133,39 @@
         <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O20" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L21">
         <v>19</v>
@@ -2111,36 +2174,39 @@
         <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J22">
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L22">
         <v>19</v>
@@ -2149,36 +2215,39 @@
         <v>30</v>
       </c>
       <c r="N22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O22" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J23">
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L23">
         <v>20</v>
@@ -2187,36 +2256,39 @@
         <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O23" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D24">
         <v>800</v>
       </c>
       <c r="E24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J24">
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L24">
         <v>21</v>
@@ -2225,36 +2297,39 @@
         <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O24" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D25">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J25">
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L25">
         <v>22</v>
@@ -2263,36 +2338,39 @@
         <v>37</v>
       </c>
       <c r="N25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J26">
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L26">
         <v>22</v>
@@ -2301,36 +2379,39 @@
         <v>37</v>
       </c>
       <c r="N26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O26" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R26" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J27">
         <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L27">
         <v>22</v>
@@ -2339,36 +2420,39 @@
         <v>37</v>
       </c>
       <c r="N27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O27" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D28">
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J28">
         <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -2377,36 +2461,39 @@
         <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O28" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>303</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J29">
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -2415,36 +2502,39 @@
         <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O29" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R29" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>303</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J30">
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -2453,36 +2543,39 @@
         <v>52</v>
       </c>
       <c r="N30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O30" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="R30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D31">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J31">
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L31">
         <v>28</v>
@@ -2491,36 +2584,39 @@
         <v>57</v>
       </c>
       <c r="N31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O31" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J32">
         <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L32">
         <v>29</v>
@@ -2529,36 +2625,39 @@
         <v>58</v>
       </c>
       <c r="N32" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O32" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="R32" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J33">
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L33">
         <v>30</v>
@@ -2567,36 +2666,39 @@
         <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J34">
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L34">
         <v>30</v>
@@ -2605,36 +2707,39 @@
         <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O34" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R34" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J35">
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L35">
         <v>33</v>
@@ -2643,36 +2748,39 @@
         <v>63</v>
       </c>
       <c r="N35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J36">
         <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L36">
         <v>33</v>
@@ -2681,36 +2789,39 @@
         <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R36" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J37">
         <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L37">
         <v>33</v>
@@ -2719,36 +2830,39 @@
         <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O37" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R37" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J38">
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L38">
         <v>39</v>
@@ -2757,36 +2871,39 @@
         <v>81</v>
       </c>
       <c r="N38" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O38" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="R38" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J39">
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L39">
         <v>44</v>
@@ -2795,36 +2912,39 @@
         <v>87</v>
       </c>
       <c r="N39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O39" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R39" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J40">
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L40">
         <v>44</v>
@@ -2833,36 +2953,39 @@
         <v>87</v>
       </c>
       <c r="N40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O40" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R40" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J41">
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L41">
         <v>44</v>
@@ -2871,36 +2994,39 @@
         <v>87</v>
       </c>
       <c r="N41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O41" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J42">
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L42">
         <v>44</v>
@@ -2909,36 +3035,39 @@
         <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O42" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R42" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D43">
         <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J43">
         <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L43">
         <v>47</v>
@@ -2947,36 +3076,39 @@
         <v>91</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O43" s="2">
         <v>45043.91625</v>
       </c>
       <c r="R43" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J44">
         <v>43</v>
       </c>
       <c r="K44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L44">
         <v>49</v>
@@ -2985,36 +3117,39 @@
         <v>93</v>
       </c>
       <c r="N44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O44" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R44" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J45">
         <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L45">
         <v>49</v>
@@ -3023,36 +3158,39 @@
         <v>93</v>
       </c>
       <c r="N45" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O45" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R45" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J46">
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L46">
         <v>49</v>
@@ -3061,36 +3199,39 @@
         <v>93</v>
       </c>
       <c r="N46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O46" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R46" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J47">
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L47">
         <v>49</v>
@@ -3099,36 +3240,39 @@
         <v>93</v>
       </c>
       <c r="N47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O47" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R47" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J48">
         <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L48">
         <v>49</v>
@@ -3137,36 +3281,39 @@
         <v>93</v>
       </c>
       <c r="N48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O48" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R48" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D49">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J49">
         <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L49">
         <v>50</v>
@@ -3175,36 +3322,39 @@
         <v>94</v>
       </c>
       <c r="N49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O49" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R49" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J50">
         <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L50">
         <v>50</v>
@@ -3213,36 +3363,39 @@
         <v>94</v>
       </c>
       <c r="N50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O50" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R50" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J51">
         <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -3251,36 +3404,39 @@
         <v>94</v>
       </c>
       <c r="N51" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O51" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R51" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J52">
         <v>51</v>
       </c>
       <c r="K52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L52">
         <v>50</v>
@@ -3289,36 +3445,39 @@
         <v>94</v>
       </c>
       <c r="N52" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O52" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R52" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J53">
         <v>52</v>
       </c>
       <c r="K53" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L53">
         <v>50</v>
@@ -3327,36 +3486,39 @@
         <v>94</v>
       </c>
       <c r="N53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O53" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R53" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D54">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J54">
         <v>53</v>
       </c>
       <c r="K54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L54">
         <v>51</v>
@@ -3365,36 +3527,39 @@
         <v>95</v>
       </c>
       <c r="N54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O54" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R54" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D55">
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J55">
         <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L55">
         <v>51</v>
@@ -3403,36 +3568,39 @@
         <v>95</v>
       </c>
       <c r="N55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O55" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R55" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D56">
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J56">
         <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L56">
         <v>51</v>
@@ -3441,36 +3609,39 @@
         <v>95</v>
       </c>
       <c r="N56" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O56" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R56" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D57">
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J57">
         <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L57">
         <v>51</v>
@@ -3479,36 +3650,39 @@
         <v>95</v>
       </c>
       <c r="N57" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O57" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R57" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D58">
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J58">
         <v>57</v>
       </c>
       <c r="K58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L58">
         <v>51</v>
@@ -3517,36 +3691,39 @@
         <v>95</v>
       </c>
       <c r="N58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O58" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R58" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D59">
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J59">
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L59">
         <v>51</v>
@@ -3555,36 +3732,39 @@
         <v>95</v>
       </c>
       <c r="N59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O59" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R59" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J60">
         <v>59</v>
       </c>
       <c r="K60" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L60">
         <v>51</v>
@@ -3593,36 +3773,39 @@
         <v>95</v>
       </c>
       <c r="N60" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O60" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R60" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D61">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J61">
         <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L61">
         <v>51</v>
@@ -3631,36 +3814,39 @@
         <v>95</v>
       </c>
       <c r="N61" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O61" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R61" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J62">
         <v>61</v>
       </c>
       <c r="K62" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L62">
         <v>51</v>
@@ -3669,36 +3855,39 @@
         <v>95</v>
       </c>
       <c r="N62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R62" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J63">
         <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L63">
         <v>51</v>
@@ -3707,36 +3896,39 @@
         <v>95</v>
       </c>
       <c r="N63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O63" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R63" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J64">
         <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L64">
         <v>51</v>
@@ -3745,36 +3937,39 @@
         <v>95</v>
       </c>
       <c r="N64" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O64" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R64" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J65">
         <v>64</v>
       </c>
       <c r="K65" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L65">
         <v>52</v>
@@ -3783,36 +3978,39 @@
         <v>96</v>
       </c>
       <c r="N65" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O65" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="R65" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66">
         <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J66">
         <v>65</v>
       </c>
       <c r="K66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L66">
         <v>54</v>
@@ -3821,36 +4019,39 @@
         <v>99</v>
       </c>
       <c r="N66" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O66" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R66" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J67">
         <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L67">
         <v>56</v>
@@ -3859,36 +4060,39 @@
         <v>101</v>
       </c>
       <c r="N67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O67" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="R67" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68">
         <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J68">
         <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L68">
         <v>58</v>
@@ -3897,36 +4101,39 @@
         <v>103</v>
       </c>
       <c r="N68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O68" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="R68" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69">
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J69">
         <v>68</v>
       </c>
       <c r="K69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L69">
         <v>59</v>
@@ -3935,13 +4142,16 @@
         <v>104</v>
       </c>
       <c r="N69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O69" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="R69" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_4.xlsx
+++ b/files/separadas/repeat_p24_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="305">
   <si>
     <t>p24_4_nom</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1295,13 +1298,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,28 +1368,31 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -1395,39 +1401,42 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1436,39 +1445,42 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1477,39 +1489,42 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="R4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1518,39 +1533,42 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O5" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="R5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1559,39 +1577,42 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="R6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D7">
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L7">
         <v>11</v>
@@ -1600,39 +1621,42 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D8">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L8">
         <v>11</v>
@@ -1641,39 +1665,42 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D9">
         <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L9">
         <v>11</v>
@@ -1682,39 +1709,42 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L10">
         <v>11</v>
@@ -1723,39 +1753,42 @@
         <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D11">
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L11">
         <v>11</v>
@@ -1764,39 +1797,42 @@
         <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J12">
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L12">
         <v>11</v>
@@ -1805,39 +1841,42 @@
         <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D13">
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L13">
         <v>11</v>
@@ -1846,39 +1885,42 @@
         <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D14">
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L14">
         <v>11</v>
@@ -1887,39 +1929,42 @@
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15">
         <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J15">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L15">
         <v>11</v>
@@ -1928,39 +1973,42 @@
         <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D16">
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J16">
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L16">
         <v>16</v>
@@ -1969,39 +2017,42 @@
         <v>25</v>
       </c>
       <c r="N16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O16" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="R16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J17">
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L17">
         <v>17</v>
@@ -2010,39 +2061,42 @@
         <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O17" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="R17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D18">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J18">
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L18">
         <v>19</v>
@@ -2051,39 +2105,42 @@
         <v>30</v>
       </c>
       <c r="N18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O18" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J19">
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L19">
         <v>19</v>
@@ -2092,39 +2149,42 @@
         <v>30</v>
       </c>
       <c r="N19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O19" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J20">
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L20">
         <v>19</v>
@@ -2133,39 +2193,42 @@
         <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O20" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L21">
         <v>19</v>
@@ -2174,39 +2237,42 @@
         <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J22">
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L22">
         <v>19</v>
@@ -2215,39 +2281,42 @@
         <v>30</v>
       </c>
       <c r="N22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O22" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J23">
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L23">
         <v>20</v>
@@ -2256,39 +2325,42 @@
         <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O23" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D24">
         <v>800</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J24">
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L24">
         <v>21</v>
@@ -2297,39 +2369,42 @@
         <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O24" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D25">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J25">
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L25">
         <v>22</v>
@@ -2338,39 +2413,42 @@
         <v>37</v>
       </c>
       <c r="N25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J26">
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L26">
         <v>22</v>
@@ -2379,39 +2457,42 @@
         <v>37</v>
       </c>
       <c r="N26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O26" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J27">
         <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L27">
         <v>22</v>
@@ -2420,39 +2501,42 @@
         <v>37</v>
       </c>
       <c r="N27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O27" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D28">
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J28">
         <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -2461,39 +2545,42 @@
         <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O28" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J29">
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -2502,39 +2589,42 @@
         <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O29" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J30">
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -2543,39 +2633,42 @@
         <v>52</v>
       </c>
       <c r="N30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="R30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D31">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J31">
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31">
         <v>28</v>
@@ -2584,39 +2677,42 @@
         <v>57</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O31" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J32">
         <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L32">
         <v>29</v>
@@ -2625,39 +2721,42 @@
         <v>58</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O32" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="R32" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J33">
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L33">
         <v>30</v>
@@ -2666,39 +2765,42 @@
         <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J34">
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L34">
         <v>30</v>
@@ -2707,39 +2809,42 @@
         <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O34" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R34" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J35">
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L35">
         <v>33</v>
@@ -2748,39 +2853,42 @@
         <v>63</v>
       </c>
       <c r="N35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R35" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J36">
         <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L36">
         <v>33</v>
@@ -2789,39 +2897,42 @@
         <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J37">
         <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L37">
         <v>33</v>
@@ -2830,39 +2941,42 @@
         <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O37" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J38">
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L38">
         <v>39</v>
@@ -2871,39 +2985,42 @@
         <v>81</v>
       </c>
       <c r="N38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O38" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="R38" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J39">
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L39">
         <v>44</v>
@@ -2912,39 +3029,42 @@
         <v>87</v>
       </c>
       <c r="N39" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O39" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R39" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J40">
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L40">
         <v>44</v>
@@ -2953,39 +3073,42 @@
         <v>87</v>
       </c>
       <c r="N40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O40" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R40" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J41">
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L41">
         <v>44</v>
@@ -2994,39 +3117,42 @@
         <v>87</v>
       </c>
       <c r="N41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O41" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R41" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J42">
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L42">
         <v>44</v>
@@ -3035,39 +3161,42 @@
         <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O42" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D43">
         <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J43">
         <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L43">
         <v>47</v>
@@ -3076,39 +3205,42 @@
         <v>91</v>
       </c>
       <c r="N43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O43" s="2">
         <v>45043.91625</v>
       </c>
       <c r="R43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J44">
         <v>43</v>
       </c>
       <c r="K44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L44">
         <v>49</v>
@@ -3117,39 +3249,42 @@
         <v>93</v>
       </c>
       <c r="N44" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O44" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R44" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J45">
         <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L45">
         <v>49</v>
@@ -3158,39 +3293,42 @@
         <v>93</v>
       </c>
       <c r="N45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O45" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R45" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J46">
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L46">
         <v>49</v>
@@ -3199,39 +3337,42 @@
         <v>93</v>
       </c>
       <c r="N46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O46" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R46" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J47">
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L47">
         <v>49</v>
@@ -3240,39 +3381,42 @@
         <v>93</v>
       </c>
       <c r="N47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O47" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J48">
         <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L48">
         <v>49</v>
@@ -3281,39 +3425,42 @@
         <v>93</v>
       </c>
       <c r="N48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O48" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D49">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J49">
         <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L49">
         <v>50</v>
@@ -3322,39 +3469,42 @@
         <v>94</v>
       </c>
       <c r="N49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O49" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J50">
         <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L50">
         <v>50</v>
@@ -3363,39 +3513,42 @@
         <v>94</v>
       </c>
       <c r="N50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O50" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R50" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J51">
         <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -3404,39 +3557,42 @@
         <v>94</v>
       </c>
       <c r="N51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O51" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R51" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J52">
         <v>51</v>
       </c>
       <c r="K52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L52">
         <v>50</v>
@@ -3445,39 +3601,42 @@
         <v>94</v>
       </c>
       <c r="N52" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O52" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R52" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J53">
         <v>52</v>
       </c>
       <c r="K53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L53">
         <v>50</v>
@@ -3486,39 +3645,42 @@
         <v>94</v>
       </c>
       <c r="N53" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O53" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R53" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D54">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J54">
         <v>53</v>
       </c>
       <c r="K54" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L54">
         <v>51</v>
@@ -3527,39 +3689,42 @@
         <v>95</v>
       </c>
       <c r="N54" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O54" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D55">
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J55">
         <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L55">
         <v>51</v>
@@ -3568,39 +3733,42 @@
         <v>95</v>
       </c>
       <c r="N55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O55" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R55" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D56">
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J56">
         <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L56">
         <v>51</v>
@@ -3609,39 +3777,42 @@
         <v>95</v>
       </c>
       <c r="N56" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O56" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R56" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D57">
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J57">
         <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L57">
         <v>51</v>
@@ -3650,39 +3821,42 @@
         <v>95</v>
       </c>
       <c r="N57" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O57" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R57" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D58">
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J58">
         <v>57</v>
       </c>
       <c r="K58" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L58">
         <v>51</v>
@@ -3691,39 +3865,42 @@
         <v>95</v>
       </c>
       <c r="N58" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O58" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R58" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D59">
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J59">
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L59">
         <v>51</v>
@@ -3732,39 +3909,42 @@
         <v>95</v>
       </c>
       <c r="N59" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O59" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R59" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J60">
         <v>59</v>
       </c>
       <c r="K60" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L60">
         <v>51</v>
@@ -3773,39 +3953,42 @@
         <v>95</v>
       </c>
       <c r="N60" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O60" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R60" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D61">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J61">
         <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L61">
         <v>51</v>
@@ -3814,39 +3997,42 @@
         <v>95</v>
       </c>
       <c r="N61" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O61" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R61" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J62">
         <v>61</v>
       </c>
       <c r="K62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L62">
         <v>51</v>
@@ -3855,39 +4041,42 @@
         <v>95</v>
       </c>
       <c r="N62" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R62" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J63">
         <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L63">
         <v>51</v>
@@ -3896,39 +4085,42 @@
         <v>95</v>
       </c>
       <c r="N63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O63" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R63" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J64">
         <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L64">
         <v>51</v>
@@ -3937,39 +4129,42 @@
         <v>95</v>
       </c>
       <c r="N64" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O64" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R64" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D65">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J65">
         <v>64</v>
       </c>
       <c r="K65" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L65">
         <v>52</v>
@@ -3978,39 +4173,42 @@
         <v>96</v>
       </c>
       <c r="N65" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O65" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="R65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D66">
         <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J66">
         <v>65</v>
       </c>
       <c r="K66" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L66">
         <v>54</v>
@@ -4019,39 +4217,42 @@
         <v>99</v>
       </c>
       <c r="N66" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O66" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R66" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21">
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J67">
         <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L67">
         <v>56</v>
@@ -4060,39 +4261,42 @@
         <v>101</v>
       </c>
       <c r="N67" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O67" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="R67" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21">
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68">
         <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J68">
         <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L68">
         <v>58</v>
@@ -4101,39 +4305,42 @@
         <v>103</v>
       </c>
       <c r="N68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O68" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="R68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69">
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J69">
         <v>68</v>
       </c>
       <c r="K69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L69">
         <v>59</v>
@@ -4142,15 +4349,18 @@
         <v>104</v>
       </c>
       <c r="N69" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O69" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="R69" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p24_4.xlsx
+++ b/files/separadas/repeat_p24_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="306">
   <si>
     <t>p24_4_nom</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1298,13 +1301,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,28 +1374,31 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -1401,13 +1407,13 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1415,28 +1421,31 @@
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1445,13 +1454,13 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1459,28 +1468,31 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1489,13 +1501,13 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="R4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1503,28 +1515,31 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1533,13 +1548,13 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O5" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="R5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1547,28 +1562,31 @@
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1577,13 +1595,13 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="R6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1591,28 +1609,31 @@
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D7">
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L7">
         <v>11</v>
@@ -1621,13 +1642,13 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1635,28 +1656,31 @@
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D8">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L8">
         <v>11</v>
@@ -1665,13 +1689,13 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1679,28 +1703,31 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D9">
         <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L9">
         <v>11</v>
@@ -1709,13 +1736,13 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1723,28 +1750,31 @@
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L10">
         <v>11</v>
@@ -1753,13 +1783,13 @@
         <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1767,28 +1797,31 @@
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D11">
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L11">
         <v>11</v>
@@ -1797,13 +1830,13 @@
         <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1811,28 +1844,31 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J12">
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L12">
         <v>11</v>
@@ -1841,13 +1877,13 @@
         <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1855,28 +1891,31 @@
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D13">
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L13">
         <v>11</v>
@@ -1885,13 +1924,13 @@
         <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1899,28 +1938,31 @@
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D14">
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L14">
         <v>11</v>
@@ -1929,13 +1971,13 @@
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1943,28 +1985,31 @@
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D15">
         <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J15">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L15">
         <v>11</v>
@@ -1973,13 +2018,13 @@
         <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1987,28 +2032,31 @@
       <c r="V15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D16">
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J16">
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L16">
         <v>16</v>
@@ -2017,13 +2065,13 @@
         <v>25</v>
       </c>
       <c r="N16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O16" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="R16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -2031,28 +2079,31 @@
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J17">
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L17">
         <v>17</v>
@@ -2061,13 +2112,13 @@
         <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O17" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="R17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2075,28 +2126,31 @@
       <c r="V17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D18">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J18">
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L18">
         <v>19</v>
@@ -2105,13 +2159,13 @@
         <v>30</v>
       </c>
       <c r="N18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O18" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2119,28 +2173,31 @@
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D19">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J19">
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L19">
         <v>19</v>
@@ -2149,13 +2206,13 @@
         <v>30</v>
       </c>
       <c r="N19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O19" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2163,28 +2220,31 @@
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J20">
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L20">
         <v>19</v>
@@ -2193,13 +2253,13 @@
         <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O20" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2207,28 +2267,31 @@
       <c r="V20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L21">
         <v>19</v>
@@ -2237,13 +2300,13 @@
         <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2251,28 +2314,31 @@
       <c r="V21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J22">
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L22">
         <v>19</v>
@@ -2281,13 +2347,13 @@
         <v>30</v>
       </c>
       <c r="N22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O22" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2295,28 +2361,31 @@
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J23">
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L23">
         <v>20</v>
@@ -2325,13 +2394,13 @@
         <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O23" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2339,28 +2408,31 @@
       <c r="V23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D24">
         <v>800</v>
       </c>
       <c r="E24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J24">
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L24">
         <v>21</v>
@@ -2369,13 +2441,13 @@
         <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O24" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2383,28 +2455,31 @@
       <c r="V24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D25">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J25">
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L25">
         <v>22</v>
@@ -2413,13 +2488,13 @@
         <v>37</v>
       </c>
       <c r="N25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2427,28 +2502,31 @@
       <c r="V25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J26">
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26">
         <v>22</v>
@@ -2457,13 +2535,13 @@
         <v>37</v>
       </c>
       <c r="N26" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O26" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -2471,28 +2549,31 @@
       <c r="V26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J27">
         <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L27">
         <v>22</v>
@@ -2501,13 +2582,13 @@
         <v>37</v>
       </c>
       <c r="N27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O27" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -2515,28 +2596,31 @@
       <c r="V27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D28">
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J28">
         <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -2545,13 +2629,13 @@
         <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O28" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2559,28 +2643,31 @@
       <c r="V28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J29">
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -2589,13 +2676,13 @@
         <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O29" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -2603,28 +2690,31 @@
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J30">
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -2633,13 +2723,13 @@
         <v>52</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O30" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="R30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -2647,28 +2737,31 @@
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D31">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J31">
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31">
         <v>28</v>
@@ -2677,13 +2770,13 @@
         <v>57</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O31" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -2691,28 +2784,31 @@
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J32">
         <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L32">
         <v>29</v>
@@ -2721,13 +2817,13 @@
         <v>58</v>
       </c>
       <c r="N32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O32" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="R32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -2735,28 +2831,31 @@
       <c r="V32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J33">
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L33">
         <v>30</v>
@@ -2765,13 +2864,13 @@
         <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -2779,28 +2878,31 @@
       <c r="V33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J34">
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L34">
         <v>30</v>
@@ -2809,13 +2911,13 @@
         <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O34" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -2823,28 +2925,31 @@
       <c r="V34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J35">
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L35">
         <v>33</v>
@@ -2853,13 +2958,13 @@
         <v>63</v>
       </c>
       <c r="N35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R35" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -2867,28 +2972,31 @@
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J36">
         <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L36">
         <v>33</v>
@@ -2897,13 +3005,13 @@
         <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -2911,28 +3019,31 @@
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J37">
         <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L37">
         <v>33</v>
@@ -2941,13 +3052,13 @@
         <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O37" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -2955,28 +3066,31 @@
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J38">
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L38">
         <v>39</v>
@@ -2985,13 +3099,13 @@
         <v>81</v>
       </c>
       <c r="N38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O38" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="R38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -2999,28 +3113,31 @@
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J39">
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L39">
         <v>44</v>
@@ -3029,13 +3146,13 @@
         <v>87</v>
       </c>
       <c r="N39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O39" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3043,28 +3160,31 @@
       <c r="V39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J40">
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L40">
         <v>44</v>
@@ -3073,13 +3193,13 @@
         <v>87</v>
       </c>
       <c r="N40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O40" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R40" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -3087,28 +3207,31 @@
       <c r="V40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J41">
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L41">
         <v>44</v>
@@ -3117,13 +3240,13 @@
         <v>87</v>
       </c>
       <c r="N41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O41" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R41" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -3131,28 +3254,31 @@
       <c r="V41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J42">
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L42">
         <v>44</v>
@@ -3161,13 +3287,13 @@
         <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O42" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R42" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -3175,28 +3301,31 @@
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D43">
         <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J43">
         <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L43">
         <v>47</v>
@@ -3205,13 +3334,13 @@
         <v>91</v>
       </c>
       <c r="N43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O43" s="2">
         <v>45043.91625</v>
       </c>
       <c r="R43" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -3219,28 +3348,31 @@
       <c r="V43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J44">
         <v>43</v>
       </c>
       <c r="K44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L44">
         <v>49</v>
@@ -3249,13 +3381,13 @@
         <v>93</v>
       </c>
       <c r="N44" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O44" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R44" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -3263,28 +3395,31 @@
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J45">
         <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L45">
         <v>49</v>
@@ -3293,13 +3428,13 @@
         <v>93</v>
       </c>
       <c r="N45" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O45" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -3307,28 +3442,31 @@
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J46">
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L46">
         <v>49</v>
@@ -3337,13 +3475,13 @@
         <v>93</v>
       </c>
       <c r="N46" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O46" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R46" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -3351,28 +3489,31 @@
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J47">
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L47">
         <v>49</v>
@@ -3381,13 +3522,13 @@
         <v>93</v>
       </c>
       <c r="N47" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O47" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R47" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -3395,28 +3536,31 @@
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J48">
         <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L48">
         <v>49</v>
@@ -3425,13 +3569,13 @@
         <v>93</v>
       </c>
       <c r="N48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O48" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -3439,28 +3583,31 @@
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D49">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J49">
         <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L49">
         <v>50</v>
@@ -3469,13 +3616,13 @@
         <v>94</v>
       </c>
       <c r="N49" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O49" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R49" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -3483,28 +3630,31 @@
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J50">
         <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50">
         <v>50</v>
@@ -3513,13 +3663,13 @@
         <v>94</v>
       </c>
       <c r="N50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O50" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R50" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -3527,28 +3677,31 @@
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J51">
         <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -3557,13 +3710,13 @@
         <v>94</v>
       </c>
       <c r="N51" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O51" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R51" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -3571,28 +3724,31 @@
       <c r="V51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J52">
         <v>51</v>
       </c>
       <c r="K52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L52">
         <v>50</v>
@@ -3601,13 +3757,13 @@
         <v>94</v>
       </c>
       <c r="N52" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O52" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -3615,28 +3771,31 @@
       <c r="V52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J53">
         <v>52</v>
       </c>
       <c r="K53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L53">
         <v>50</v>
@@ -3645,13 +3804,13 @@
         <v>94</v>
       </c>
       <c r="N53" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O53" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R53" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -3659,28 +3818,31 @@
       <c r="V53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D54">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J54">
         <v>53</v>
       </c>
       <c r="K54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L54">
         <v>51</v>
@@ -3689,13 +3851,13 @@
         <v>95</v>
       </c>
       <c r="N54" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O54" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R54" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -3703,28 +3865,31 @@
       <c r="V54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D55">
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J55">
         <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L55">
         <v>51</v>
@@ -3733,13 +3898,13 @@
         <v>95</v>
       </c>
       <c r="N55" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O55" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R55" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -3747,28 +3912,31 @@
       <c r="V55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D56">
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J56">
         <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L56">
         <v>51</v>
@@ -3777,13 +3945,13 @@
         <v>95</v>
       </c>
       <c r="N56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O56" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R56" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -3791,28 +3959,31 @@
       <c r="V56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D57">
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J57">
         <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L57">
         <v>51</v>
@@ -3821,13 +3992,13 @@
         <v>95</v>
       </c>
       <c r="N57" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O57" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -3835,28 +4006,31 @@
       <c r="V57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D58">
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J58">
         <v>57</v>
       </c>
       <c r="K58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L58">
         <v>51</v>
@@ -3865,13 +4039,13 @@
         <v>95</v>
       </c>
       <c r="N58" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O58" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -3879,28 +4053,31 @@
       <c r="V58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D59">
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J59">
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L59">
         <v>51</v>
@@ -3909,13 +4086,13 @@
         <v>95</v>
       </c>
       <c r="N59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O59" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R59" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -3923,28 +4100,31 @@
       <c r="V59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J60">
         <v>59</v>
       </c>
       <c r="K60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L60">
         <v>51</v>
@@ -3953,13 +4133,13 @@
         <v>95</v>
       </c>
       <c r="N60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O60" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R60" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -3967,28 +4147,31 @@
       <c r="V60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D61">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J61">
         <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L61">
         <v>51</v>
@@ -3997,13 +4180,13 @@
         <v>95</v>
       </c>
       <c r="N61" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O61" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R61" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -4011,28 +4194,31 @@
       <c r="V61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J62">
         <v>61</v>
       </c>
       <c r="K62" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L62">
         <v>51</v>
@@ -4041,13 +4227,13 @@
         <v>95</v>
       </c>
       <c r="N62" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -4055,28 +4241,31 @@
       <c r="V62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J63">
         <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L63">
         <v>51</v>
@@ -4085,13 +4274,13 @@
         <v>95</v>
       </c>
       <c r="N63" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O63" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -4099,28 +4288,31 @@
       <c r="V63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J64">
         <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L64">
         <v>51</v>
@@ -4129,13 +4321,13 @@
         <v>95</v>
       </c>
       <c r="N64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O64" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R64" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -4143,28 +4335,31 @@
       <c r="V64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D65">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J65">
         <v>64</v>
       </c>
       <c r="K65" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L65">
         <v>52</v>
@@ -4173,13 +4368,13 @@
         <v>96</v>
       </c>
       <c r="N65" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O65" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="R65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -4187,28 +4382,31 @@
       <c r="V65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66">
         <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J66">
         <v>65</v>
       </c>
       <c r="K66" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L66">
         <v>54</v>
@@ -4217,13 +4415,13 @@
         <v>99</v>
       </c>
       <c r="N66" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O66" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R66" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -4231,28 +4429,31 @@
       <c r="V66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J67">
         <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L67">
         <v>56</v>
@@ -4261,13 +4462,13 @@
         <v>101</v>
       </c>
       <c r="N67" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O67" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="R67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U67">
         <v>0</v>
@@ -4275,28 +4476,31 @@
       <c r="V67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68">
         <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J68">
         <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L68">
         <v>58</v>
@@ -4305,13 +4509,13 @@
         <v>103</v>
       </c>
       <c r="N68" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O68" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="R68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -4319,28 +4523,31 @@
       <c r="V68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69">
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J69">
         <v>68</v>
       </c>
       <c r="K69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L69">
         <v>59</v>
@@ -4349,18 +4556,21 @@
         <v>104</v>
       </c>
       <c r="N69" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O69" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="R69" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U69">
         <v>0</v>
       </c>
       <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p24_4.xlsx
+++ b/files/separadas/repeat_p24_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="305">
   <si>
     <t>p24_4_nom</t>
   </si>
@@ -76,13 +76,10 @@
     <t>_submission__tags</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
     <t>nota_iniciativa</t>
+  </si>
+  <si>
+    <t>p24_4</t>
   </si>
   <si>
     <t>Diplimado en innovación -ESAP</t>
@@ -1301,13 +1298,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W69"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,31 +1371,28 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -1407,45 +1401,36 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R2" t="s">
-        <v>304</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1454,45 +1439,36 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R3" t="s">
-        <v>304</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1501,45 +1477,36 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="R4" t="s">
-        <v>304</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1548,45 +1515,36 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O5" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="R5" t="s">
-        <v>304</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1595,45 +1553,36 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="R6" t="s">
-        <v>304</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7">
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L7">
         <v>11</v>
@@ -1642,45 +1591,36 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R7" t="s">
-        <v>304</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L8">
         <v>11</v>
@@ -1689,45 +1629,36 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R8" t="s">
-        <v>304</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9">
         <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L9">
         <v>11</v>
@@ -1736,45 +1667,36 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R9" t="s">
-        <v>304</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L10">
         <v>11</v>
@@ -1783,45 +1705,36 @@
         <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R10" t="s">
-        <v>304</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11">
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L11">
         <v>11</v>
@@ -1830,45 +1743,36 @@
         <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R11" t="s">
-        <v>304</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J12">
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L12">
         <v>11</v>
@@ -1877,45 +1781,36 @@
         <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R12" t="s">
-        <v>304</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13">
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L13">
         <v>11</v>
@@ -1924,45 +1819,36 @@
         <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R13" t="s">
-        <v>304</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14">
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L14">
         <v>11</v>
@@ -1971,45 +1857,36 @@
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R14" t="s">
-        <v>304</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15">
         <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J15">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L15">
         <v>11</v>
@@ -2018,45 +1895,36 @@
         <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R15" t="s">
-        <v>304</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16">
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J16">
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L16">
         <v>16</v>
@@ -2065,45 +1933,36 @@
         <v>25</v>
       </c>
       <c r="N16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O16" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="R16" t="s">
-        <v>304</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J17">
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L17">
         <v>17</v>
@@ -2112,45 +1971,36 @@
         <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O17" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="R17" t="s">
-        <v>304</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J18">
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L18">
         <v>19</v>
@@ -2159,45 +2009,36 @@
         <v>30</v>
       </c>
       <c r="N18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O18" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R18" t="s">
-        <v>304</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D19">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J19">
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L19">
         <v>19</v>
@@ -2206,45 +2047,36 @@
         <v>30</v>
       </c>
       <c r="N19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O19" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R19" t="s">
-        <v>304</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J20">
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L20">
         <v>19</v>
@@ -2253,45 +2085,36 @@
         <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O20" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R20" t="s">
-        <v>304</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L21">
         <v>19</v>
@@ -2300,45 +2123,36 @@
         <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R21" t="s">
-        <v>304</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J22">
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L22">
         <v>19</v>
@@ -2347,45 +2161,36 @@
         <v>30</v>
       </c>
       <c r="N22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O22" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R22" t="s">
-        <v>304</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J23">
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L23">
         <v>20</v>
@@ -2394,45 +2199,36 @@
         <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O23" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R23" t="s">
-        <v>304</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24">
         <v>800</v>
       </c>
       <c r="E24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J24">
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L24">
         <v>21</v>
@@ -2441,45 +2237,36 @@
         <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O24" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R24" t="s">
-        <v>304</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J25">
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L25">
         <v>22</v>
@@ -2488,45 +2275,36 @@
         <v>37</v>
       </c>
       <c r="N25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R25" t="s">
-        <v>304</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J26">
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L26">
         <v>22</v>
@@ -2535,45 +2313,36 @@
         <v>37</v>
       </c>
       <c r="N26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O26" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R26" t="s">
-        <v>304</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J27">
         <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L27">
         <v>22</v>
@@ -2582,45 +2351,36 @@
         <v>37</v>
       </c>
       <c r="N27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O27" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R27" t="s">
-        <v>304</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28">
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J28">
         <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -2629,45 +2389,36 @@
         <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O28" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R28" t="s">
-        <v>305</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J29">
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -2676,45 +2427,36 @@
         <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O29" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R29" t="s">
-        <v>305</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J30">
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -2723,45 +2465,36 @@
         <v>52</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O30" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="R30" t="s">
-        <v>304</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D31">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J31">
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L31">
         <v>28</v>
@@ -2770,45 +2503,36 @@
         <v>57</v>
       </c>
       <c r="N31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O31" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R31" t="s">
-        <v>304</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J32">
         <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L32">
         <v>29</v>
@@ -2817,45 +2541,36 @@
         <v>58</v>
       </c>
       <c r="N32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O32" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="R32" t="s">
-        <v>304</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J33">
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L33">
         <v>30</v>
@@ -2864,45 +2579,36 @@
         <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R33" t="s">
-        <v>304</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J34">
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L34">
         <v>30</v>
@@ -2911,45 +2617,36 @@
         <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O34" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R34" t="s">
-        <v>304</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J35">
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L35">
         <v>33</v>
@@ -2958,45 +2655,36 @@
         <v>63</v>
       </c>
       <c r="N35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R35" t="s">
-        <v>304</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J36">
         <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L36">
         <v>33</v>
@@ -3005,45 +2693,36 @@
         <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R36" t="s">
-        <v>304</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J37">
         <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L37">
         <v>33</v>
@@ -3052,45 +2731,36 @@
         <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O37" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R37" t="s">
-        <v>304</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J38">
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L38">
         <v>39</v>
@@ -3099,45 +2769,36 @@
         <v>81</v>
       </c>
       <c r="N38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O38" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="R38" t="s">
-        <v>304</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J39">
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L39">
         <v>44</v>
@@ -3146,45 +2807,36 @@
         <v>87</v>
       </c>
       <c r="N39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O39" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R39" t="s">
-        <v>304</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J40">
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L40">
         <v>44</v>
@@ -3193,45 +2845,36 @@
         <v>87</v>
       </c>
       <c r="N40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O40" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R40" t="s">
-        <v>304</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J41">
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L41">
         <v>44</v>
@@ -3240,45 +2883,36 @@
         <v>87</v>
       </c>
       <c r="N41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O41" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R41" t="s">
-        <v>304</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J42">
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L42">
         <v>44</v>
@@ -3287,45 +2921,36 @@
         <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O42" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R42" t="s">
-        <v>304</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D43">
         <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J43">
         <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L43">
         <v>47</v>
@@ -3334,45 +2959,36 @@
         <v>91</v>
       </c>
       <c r="N43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O43" s="2">
         <v>45043.91625</v>
       </c>
       <c r="R43" t="s">
-        <v>304</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J44">
         <v>43</v>
       </c>
       <c r="K44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L44">
         <v>49</v>
@@ -3381,45 +2997,36 @@
         <v>93</v>
       </c>
       <c r="N44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O44" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R44" t="s">
-        <v>304</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J45">
         <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L45">
         <v>49</v>
@@ -3428,45 +3035,36 @@
         <v>93</v>
       </c>
       <c r="N45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O45" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R45" t="s">
-        <v>304</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J46">
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L46">
         <v>49</v>
@@ -3475,45 +3073,36 @@
         <v>93</v>
       </c>
       <c r="N46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O46" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R46" t="s">
-        <v>304</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J47">
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L47">
         <v>49</v>
@@ -3522,45 +3111,36 @@
         <v>93</v>
       </c>
       <c r="N47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O47" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R47" t="s">
-        <v>304</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J48">
         <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L48">
         <v>49</v>
@@ -3569,45 +3149,36 @@
         <v>93</v>
       </c>
       <c r="N48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O48" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R48" t="s">
-        <v>304</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D49">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J49">
         <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L49">
         <v>50</v>
@@ -3616,45 +3187,36 @@
         <v>94</v>
       </c>
       <c r="N49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O49" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R49" t="s">
-        <v>304</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J50">
         <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L50">
         <v>50</v>
@@ -3663,45 +3225,36 @@
         <v>94</v>
       </c>
       <c r="N50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O50" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R50" t="s">
-        <v>304</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J51">
         <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -3710,45 +3263,36 @@
         <v>94</v>
       </c>
       <c r="N51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O51" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R51" t="s">
-        <v>304</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J52">
         <v>51</v>
       </c>
       <c r="K52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L52">
         <v>50</v>
@@ -3757,45 +3301,36 @@
         <v>94</v>
       </c>
       <c r="N52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O52" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R52" t="s">
-        <v>304</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J53">
         <v>52</v>
       </c>
       <c r="K53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L53">
         <v>50</v>
@@ -3804,45 +3339,36 @@
         <v>94</v>
       </c>
       <c r="N53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O53" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R53" t="s">
-        <v>304</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D54">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J54">
         <v>53</v>
       </c>
       <c r="K54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L54">
         <v>51</v>
@@ -3851,45 +3377,36 @@
         <v>95</v>
       </c>
       <c r="N54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O54" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R54" t="s">
-        <v>304</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D55">
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J55">
         <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L55">
         <v>51</v>
@@ -3898,45 +3415,36 @@
         <v>95</v>
       </c>
       <c r="N55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O55" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R55" t="s">
-        <v>304</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D56">
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J56">
         <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L56">
         <v>51</v>
@@ -3945,45 +3453,36 @@
         <v>95</v>
       </c>
       <c r="N56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O56" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R56" t="s">
-        <v>304</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D57">
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J57">
         <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L57">
         <v>51</v>
@@ -3992,45 +3491,36 @@
         <v>95</v>
       </c>
       <c r="N57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O57" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R57" t="s">
-        <v>304</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D58">
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J58">
         <v>57</v>
       </c>
       <c r="K58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L58">
         <v>51</v>
@@ -4039,45 +3529,36 @@
         <v>95</v>
       </c>
       <c r="N58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O58" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R58" t="s">
-        <v>304</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D59">
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J59">
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L59">
         <v>51</v>
@@ -4086,45 +3567,42 @@
         <v>95</v>
       </c>
       <c r="N59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O59" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J60">
         <v>59</v>
       </c>
       <c r="K60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L60">
         <v>51</v>
@@ -4133,45 +3611,36 @@
         <v>95</v>
       </c>
       <c r="N60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O60" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R60" t="s">
-        <v>304</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D61">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J61">
         <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L61">
         <v>51</v>
@@ -4180,45 +3649,36 @@
         <v>95</v>
       </c>
       <c r="N61" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O61" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R61" t="s">
-        <v>304</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J62">
         <v>61</v>
       </c>
       <c r="K62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L62">
         <v>51</v>
@@ -4227,45 +3687,36 @@
         <v>95</v>
       </c>
       <c r="N62" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R62" t="s">
-        <v>304</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J63">
         <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L63">
         <v>51</v>
@@ -4274,45 +3725,36 @@
         <v>95</v>
       </c>
       <c r="N63" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O63" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R63" t="s">
-        <v>304</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J64">
         <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L64">
         <v>51</v>
@@ -4321,45 +3763,36 @@
         <v>95</v>
       </c>
       <c r="N64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O64" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R64" t="s">
-        <v>304</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J65">
         <v>64</v>
       </c>
       <c r="K65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L65">
         <v>52</v>
@@ -4368,45 +3801,36 @@
         <v>96</v>
       </c>
       <c r="N65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O65" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="R65" t="s">
-        <v>304</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66">
         <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J66">
         <v>65</v>
       </c>
       <c r="K66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L66">
         <v>54</v>
@@ -4415,45 +3839,36 @@
         <v>99</v>
       </c>
       <c r="N66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O66" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R66" t="s">
-        <v>304</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J67">
         <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L67">
         <v>56</v>
@@ -4462,45 +3877,36 @@
         <v>101</v>
       </c>
       <c r="N67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O67" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="R67" t="s">
-        <v>304</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68">
         <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J68">
         <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L68">
         <v>58</v>
@@ -4509,45 +3915,36 @@
         <v>103</v>
       </c>
       <c r="N68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O68" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="R68" t="s">
-        <v>304</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69">
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J69">
         <v>68</v>
       </c>
       <c r="K69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L69">
         <v>59</v>
@@ -4556,22 +3953,13 @@
         <v>104</v>
       </c>
       <c r="N69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O69" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="R69" t="s">
-        <v>304</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_4.xlsx
+++ b/files/separadas/repeat_p24_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="304">
   <si>
     <t>p24_4_nom</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>nota_iniciativa</t>
-  </si>
-  <si>
-    <t>p24_4</t>
   </si>
   <si>
     <t>Diplimado en innovación -ESAP</t>
@@ -1298,13 +1295,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1368,31 +1365,28 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L2">
         <v>3</v>
@@ -1401,36 +1395,39 @@
         <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1439,36 +1436,39 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1477,36 +1477,39 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="R4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1515,36 +1518,39 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O5" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="R5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1553,36 +1559,39 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="R6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7">
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L7">
         <v>11</v>
@@ -1591,36 +1600,39 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L8">
         <v>11</v>
@@ -1629,36 +1641,39 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9">
         <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L9">
         <v>11</v>
@@ -1667,36 +1682,39 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J10">
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L10">
         <v>11</v>
@@ -1705,36 +1723,39 @@
         <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11">
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L11">
         <v>11</v>
@@ -1743,36 +1764,39 @@
         <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J12">
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L12">
         <v>11</v>
@@ -1781,36 +1805,39 @@
         <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13">
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L13">
         <v>11</v>
@@ -1819,36 +1846,39 @@
         <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14">
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L14">
         <v>11</v>
@@ -1857,36 +1887,39 @@
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15">
         <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J15">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L15">
         <v>11</v>
@@ -1895,36 +1928,39 @@
         <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16">
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J16">
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L16">
         <v>16</v>
@@ -1933,36 +1969,39 @@
         <v>25</v>
       </c>
       <c r="N16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O16" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="R16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J17">
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L17">
         <v>17</v>
@@ -1971,36 +2010,39 @@
         <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O17" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="R17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J18">
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L18">
         <v>19</v>
@@ -2009,36 +2051,39 @@
         <v>30</v>
       </c>
       <c r="N18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O18" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D19">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J19">
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L19">
         <v>19</v>
@@ -2047,36 +2092,39 @@
         <v>30</v>
       </c>
       <c r="N19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O19" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J20">
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L20">
         <v>19</v>
@@ -2085,36 +2133,39 @@
         <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O20" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L21">
         <v>19</v>
@@ -2123,36 +2174,39 @@
         <v>30</v>
       </c>
       <c r="N21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J22">
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L22">
         <v>19</v>
@@ -2161,36 +2215,39 @@
         <v>30</v>
       </c>
       <c r="N22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O22" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J23">
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L23">
         <v>20</v>
@@ -2199,36 +2256,39 @@
         <v>33</v>
       </c>
       <c r="N23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O23" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24">
         <v>800</v>
       </c>
       <c r="E24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J24">
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L24">
         <v>21</v>
@@ -2237,36 +2297,39 @@
         <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O24" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J25">
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L25">
         <v>22</v>
@@ -2275,36 +2338,39 @@
         <v>37</v>
       </c>
       <c r="N25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J26">
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L26">
         <v>22</v>
@@ -2313,36 +2379,39 @@
         <v>37</v>
       </c>
       <c r="N26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O26" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J27">
         <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L27">
         <v>22</v>
@@ -2351,36 +2420,39 @@
         <v>37</v>
       </c>
       <c r="N27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O27" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28">
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J28">
         <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -2389,36 +2461,39 @@
         <v>51</v>
       </c>
       <c r="N28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O28" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>303</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J29">
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L29">
         <v>24</v>
@@ -2427,36 +2502,39 @@
         <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O29" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R29" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>303</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J30">
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -2465,36 +2543,39 @@
         <v>52</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O30" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="R30" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D31">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J31">
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L31">
         <v>28</v>
@@ -2503,36 +2584,39 @@
         <v>57</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O31" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R31" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J32">
         <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L32">
         <v>29</v>
@@ -2541,36 +2625,39 @@
         <v>58</v>
       </c>
       <c r="N32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O32" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="R32" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J33">
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L33">
         <v>30</v>
@@ -2579,36 +2666,39 @@
         <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J34">
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L34">
         <v>30</v>
@@ -2617,36 +2707,39 @@
         <v>59</v>
       </c>
       <c r="N34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O34" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R34" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J35">
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L35">
         <v>33</v>
@@ -2655,36 +2748,39 @@
         <v>63</v>
       </c>
       <c r="N35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J36">
         <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L36">
         <v>33</v>
@@ -2693,36 +2789,39 @@
         <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R36" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J37">
         <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L37">
         <v>33</v>
@@ -2731,36 +2830,39 @@
         <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O37" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R37" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J38">
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L38">
         <v>39</v>
@@ -2769,36 +2871,39 @@
         <v>81</v>
       </c>
       <c r="N38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O38" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="R38" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J39">
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L39">
         <v>44</v>
@@ -2807,36 +2912,39 @@
         <v>87</v>
       </c>
       <c r="N39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O39" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R39" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J40">
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L40">
         <v>44</v>
@@ -2845,36 +2953,39 @@
         <v>87</v>
       </c>
       <c r="N40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O40" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R40" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J41">
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L41">
         <v>44</v>
@@ -2883,36 +2994,39 @@
         <v>87</v>
       </c>
       <c r="N41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O41" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R41" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J42">
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L42">
         <v>44</v>
@@ -2921,36 +3035,39 @@
         <v>87</v>
       </c>
       <c r="N42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O42" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R42" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D43">
         <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J43">
         <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L43">
         <v>47</v>
@@ -2959,36 +3076,39 @@
         <v>91</v>
       </c>
       <c r="N43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O43" s="2">
         <v>45043.91625</v>
       </c>
       <c r="R43" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J44">
         <v>43</v>
       </c>
       <c r="K44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L44">
         <v>49</v>
@@ -2997,36 +3117,39 @@
         <v>93</v>
       </c>
       <c r="N44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O44" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R44" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J45">
         <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L45">
         <v>49</v>
@@ -3035,36 +3158,39 @@
         <v>93</v>
       </c>
       <c r="N45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O45" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R45" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J46">
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L46">
         <v>49</v>
@@ -3073,36 +3199,39 @@
         <v>93</v>
       </c>
       <c r="N46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O46" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R46" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J47">
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L47">
         <v>49</v>
@@ -3111,36 +3240,39 @@
         <v>93</v>
       </c>
       <c r="N47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O47" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R47" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J48">
         <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L48">
         <v>49</v>
@@ -3149,36 +3281,39 @@
         <v>93</v>
       </c>
       <c r="N48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O48" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R48" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D49">
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J49">
         <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L49">
         <v>50</v>
@@ -3187,36 +3322,39 @@
         <v>94</v>
       </c>
       <c r="N49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O49" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R49" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J50">
         <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L50">
         <v>50</v>
@@ -3225,36 +3363,39 @@
         <v>94</v>
       </c>
       <c r="N50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O50" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R50" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J51">
         <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L51">
         <v>50</v>
@@ -3263,36 +3404,39 @@
         <v>94</v>
       </c>
       <c r="N51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O51" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R51" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J52">
         <v>51</v>
       </c>
       <c r="K52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L52">
         <v>50</v>
@@ -3301,36 +3445,39 @@
         <v>94</v>
       </c>
       <c r="N52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O52" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R52" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J53">
         <v>52</v>
       </c>
       <c r="K53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L53">
         <v>50</v>
@@ -3339,36 +3486,39 @@
         <v>94</v>
       </c>
       <c r="N53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O53" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R53" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D54">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J54">
         <v>53</v>
       </c>
       <c r="K54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L54">
         <v>51</v>
@@ -3377,36 +3527,39 @@
         <v>95</v>
       </c>
       <c r="N54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O54" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R54" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55">
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J55">
         <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L55">
         <v>51</v>
@@ -3415,36 +3568,39 @@
         <v>95</v>
       </c>
       <c r="N55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O55" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R55" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D56">
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J56">
         <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L56">
         <v>51</v>
@@ -3453,36 +3609,39 @@
         <v>95</v>
       </c>
       <c r="N56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O56" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R56" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D57">
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J57">
         <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L57">
         <v>51</v>
@@ -3491,36 +3650,39 @@
         <v>95</v>
       </c>
       <c r="N57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O57" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R57" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D58">
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J58">
         <v>57</v>
       </c>
       <c r="K58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L58">
         <v>51</v>
@@ -3529,36 +3691,39 @@
         <v>95</v>
       </c>
       <c r="N58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O58" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R58" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59">
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J59">
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L59">
         <v>51</v>
@@ -3567,42 +3732,39 @@
         <v>95</v>
       </c>
       <c r="N59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O59" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U59">
-        <v>1.6</v>
-      </c>
-      <c r="V59">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J60">
         <v>59</v>
       </c>
       <c r="K60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L60">
         <v>51</v>
@@ -3611,36 +3773,39 @@
         <v>95</v>
       </c>
       <c r="N60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O60" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R60" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D61">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J61">
         <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L61">
         <v>51</v>
@@ -3649,36 +3814,39 @@
         <v>95</v>
       </c>
       <c r="N61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O61" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R61" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D62">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J62">
         <v>61</v>
       </c>
       <c r="K62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L62">
         <v>51</v>
@@ -3687,36 +3855,39 @@
         <v>95</v>
       </c>
       <c r="N62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R62" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J63">
         <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L63">
         <v>51</v>
@@ -3725,36 +3896,39 @@
         <v>95</v>
       </c>
       <c r="N63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O63" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R63" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+        <v>302</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J64">
         <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L64">
         <v>51</v>
@@ -3763,36 +3937,39 @@
         <v>95</v>
       </c>
       <c r="N64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O64" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R64" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D65">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J65">
         <v>64</v>
       </c>
       <c r="K65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L65">
         <v>52</v>
@@ -3801,36 +3978,39 @@
         <v>96</v>
       </c>
       <c r="N65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O65" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="R65" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66">
         <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J66">
         <v>65</v>
       </c>
       <c r="K66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L66">
         <v>54</v>
@@ -3839,36 +4019,39 @@
         <v>99</v>
       </c>
       <c r="N66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O66" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R66" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J67">
         <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L67">
         <v>56</v>
@@ -3877,36 +4060,39 @@
         <v>101</v>
       </c>
       <c r="N67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O67" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="R67" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68">
         <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J68">
         <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L68">
         <v>58</v>
@@ -3915,36 +4101,39 @@
         <v>103</v>
       </c>
       <c r="N68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O68" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="R68" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+        <v>302</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69">
         <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J69">
         <v>68</v>
       </c>
       <c r="K69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L69">
         <v>59</v>
@@ -3953,13 +4142,16 @@
         <v>104</v>
       </c>
       <c r="N69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O69" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="R69" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
